--- a/Raspsianie.xlsx
+++ b/Raspsianie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapto\Desktop\RASPISANIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapto\Desktop\vk-bot-312\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D764462-C73D-42A4-BC91-901DEA1D3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F08EC7-7594-4A4E-B412-7264A7AA16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B5F8425-82D8-4D2A-A826-2B79EB3D081B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>17:25-18:50</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Теория информации (Практические)</t>
+  </si>
+  <si>
+    <t>Пакеты прикладных программ (лекции)</t>
+  </si>
+  <si>
+    <t>Организационное и правовое обеспечение информационной безопасности (Практические)</t>
+  </si>
+  <si>
+    <t>Организационное и правовое обеспечение информационной безопасности (Лабораторные)</t>
+  </si>
+  <si>
+    <t>Компьютерные сети (Лабораторные)</t>
+  </si>
+  <si>
+    <t>401Г</t>
+  </si>
+  <si>
+    <t>Теория информации (лекции)</t>
   </si>
 </sst>
 </file>
@@ -236,13 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,12 +262,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,7 +591,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +614,10 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
@@ -608,36 +626,36 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>331</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>334</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
@@ -646,8 +664,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
@@ -656,20 +674,20 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -682,8 +700,8 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -696,8 +714,8 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5"/>
@@ -706,8 +724,8 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5"/>
@@ -716,8 +734,8 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="5"/>
@@ -726,20 +744,20 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -752,8 +770,8 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -766,8 +784,8 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -780,8 +798,8 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="5"/>
@@ -790,8 +808,8 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5"/>
@@ -800,20 +818,20 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -826,8 +844,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -840,8 +858,8 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -854,8 +872,8 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="5"/>
@@ -864,8 +882,8 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="5"/>
@@ -874,20 +892,20 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3"/>
@@ -896,8 +914,8 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -910,8 +928,8 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -924,8 +942,8 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="5"/>
@@ -934,8 +952,8 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="5"/>
@@ -944,20 +962,20 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3"/>
@@ -966,8 +984,8 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="5"/>
@@ -976,8 +994,8 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5"/>
@@ -986,8 +1004,8 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="5"/>
@@ -996,8 +1014,8 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5"/>
@@ -1006,20 +1024,20 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="3"/>
@@ -1028,38 +1046,50 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7">
+        <v>156</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7">
+        <v>424</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="7">
+        <v>424</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5"/>
@@ -1068,50 +1098,62 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6">
+        <v>474</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7">
+        <v>352</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7">
+        <v>424</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="5"/>
@@ -1120,8 +1162,8 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5"/>
@@ -1130,50 +1172,62 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6">
+        <v>353</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7">
+        <v>381</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="7">
+        <v>381</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="5"/>
@@ -1182,8 +1236,8 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="5"/>
@@ -1192,20 +1246,20 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="3"/>
@@ -1213,39 +1267,51 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12" t="s">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="7">
+        <v>256</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="7">
+        <v>352</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="7">
+        <v>460</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="5"/>
@@ -1254,50 +1320,62 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="7">
+        <v>156</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="7">
+        <v>156</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="5"/>
@@ -1306,8 +1384,8 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="5"/>
@@ -1316,20 +1394,20 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="3"/>
@@ -1338,8 +1416,8 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="5"/>
@@ -1348,8 +1426,8 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="5"/>
@@ -1358,8 +1436,8 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="5"/>
@@ -1368,8 +1446,8 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="5"/>
@@ -1378,12 +1456,12 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
@@ -1394,14 +1472,15 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A73"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Raspsianie.xlsx
+++ b/Raspsianie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapto\Desktop\vk-bot-312\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F08EC7-7594-4A4E-B412-7264A7AA16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E649E9E-CD11-4AE7-904B-D662EFE73B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B5F8425-82D8-4D2A-A826-2B79EB3D081B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>17:25-18:50</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Теория информации (лекции)</t>
+  </si>
+  <si>
+    <t>Компьютерные сети (лекции)</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B122B-EA54-4FC0-9A47-B09F2CAD8467}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1265,12 @@
       <c r="B56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="6">
+        <v>424</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
@@ -1467,11 +1474,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A32:A37"/>
@@ -1479,6 +1481,11 @@
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Raspsianie.xlsx
+++ b/Raspsianie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapto\Desktop\vk-bot-312\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E649E9E-CD11-4AE7-904B-D662EFE73B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4B55AC-753B-479F-B01C-29AEBB3632FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B5F8425-82D8-4D2A-A826-2B79EB3D081B}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B122B-EA54-4FC0-9A47-B09F2CAD8467}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,8 +805,12 @@
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
+        <v>381</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -1265,12 +1269,8 @@
       <c r="B56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="6">
-        <v>424</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
@@ -1474,6 +1474,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A32:A37"/>
@@ -1481,11 +1486,6 @@
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
